--- a/Integrador1/output/Reporte_2020_MINISTERIO DE JUSTICIA Y SEGURIDAD.xlsx
+++ b/Integrador1/output/Reporte_2020_MINISTERIO DE JUSTICIA Y SEGURIDAD.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arbuefsr04\rpa\Capacitaciones\Talento Digital\Material\Dia 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E10B8-94C8-4260-AFD3-D7704F36828B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2DA9467-A94B-4836-ACE5-2CC0F7CE39D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
     <sheet name="Detalle" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Jurisdiccion</t>
   </si>
@@ -82,12 +76,36 @@
   </si>
   <si>
     <t>Importe Total $</t>
+  </si>
+  <si>
+    <t>Valentina Espinoza</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE JUSTICIA Y SEGURIDAD</t>
+  </si>
+  <si>
+    <t>RAUL JORGE LEON POGGI</t>
+  </si>
+  <si>
+    <t>20-08336759-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETILICO ALCOHOL    Modelo: Producto farmacéutico básico, según Farmacopea Nacional Argentina vigente, con protocolo de análisis </t>
+  </si>
+  <si>
+    <t>ZOOCIOS SRL</t>
+  </si>
+  <si>
+    <t>30-71142852-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUANTE PARA EXAMINACION    Modelo: Tamaño extra grande (XL). Elaborado en látex de primera calidad, descartable, atóxico y ambidiestro, no debe presentar asperezas al tacto y su largo permitirá cubrir con ajuste adecuado el puño del camisolín </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -198,6 +216,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -310,7 +329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -504,21 +523,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBAB0B3-976C-4A22-80DF-6963064C51BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -549,31 +568,43 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="7">
+        <v>44620.977233796293</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>2020</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>7111.9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -587,14 +618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0DA34C-081E-49FC-BC42-435812368D1D}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -627,6 +658,75 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>43970</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>1382.8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>43970</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>1252.0999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>43970</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>4477</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
